--- a/biology/Médecine/CHU_Mohammed_VI_(Marrakech)/CHU_Mohammed_VI_(Marrakech).xlsx
+++ b/biology/Médecine/CHU_Mohammed_VI_(Marrakech)/CHU_Mohammed_VI_(Marrakech).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU Mohammed VI (Marrakech) est un centre hospitalier universitaire situé à Marrakech. Il est affilié au ministère de la Santé. Il se compose de 4 hôpitaux, qui sont l'hôpital Ibn Al-Nafees, l'hôpital Ibn Tofail, l'hôpital Al-Razi, l'hôpital mère et enfant, en plus d'un centre d'oncologie et d'hématologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU Mohammed VI (Marrakech) est un centre hospitalier universitaire situé à Marrakech. Il est affilié au ministère de la Santé. Il se compose de 4 hôpitaux, qui sont l'hôpital Ibn Al-Nafees, l'hôpital Ibn Tofail, l'hôpital Al-Razi, l'hôpital mère et enfant, en plus d'un centre d'oncologie et d'hématologie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CHU Mohammed VI (Marrakech) a été créé en vertu de la loi n° 82.00, modifiée par la loi n° 37.80 relative aux centres hospitaliers[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHU Mohammed VI (Marrakech) a été créé en vertu de la loi n° 82.00, modifiée par la loi n° 37.80 relative aux centres hospitaliers,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Capacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hôpital Ibn Al-Nafees : 220 lits
 Hôpital Ibn Tofail : 409 lits
@@ -576,9 +592,11 @@
           <t>Spécialités médicales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hôpitaux affiliés au CHU Mohamed VI de Marrakech ont les spécialités suivantes[4],[5],[6],[7],[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hôpitaux affiliés au CHU Mohamed VI de Marrakech ont les spécialités suivantes :
 </t>
         </is>
       </c>
